--- a/pickup/docs/BOM.xlsx
+++ b/pickup/docs/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Documents\Git\ohnoitsalobo\pickup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Documents\Git\ohnoitsalobo\pickup\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB6D9D6-CB4E-45A2-A2AD-49039DABAC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39EF6D-916E-4231-B395-424733CCEB0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12825" xr2:uid="{8DB83B54-F7A3-487D-82E4-D6D8BE36EA34}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -72,19 +66,16 @@
     <t>TRS 6.35mm</t>
   </si>
   <si>
-    <t>12mm</t>
-  </si>
-  <si>
     <t>15mm</t>
   </si>
   <si>
     <t>Piezoelectric disc</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>JLCPCB</t>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>MX Electronics</t>
   </si>
 </sst>
 </file>
@@ -177,13 +168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>60443</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -232,13 +223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>697992</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -298,13 +289,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>918210</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -364,13 +355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>976503</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -403,72 +394,6 @@
         <a:xfrm>
           <a:off x="976503" y="4076700"/>
           <a:ext cx="1042797" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>804991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Murata, SMD Diaphragm External Piezo Buzzer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E88550B-D270-4EAF-BC4D-7F3528D2EB34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5372100"/>
-          <a:ext cx="2019300" cy="804991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,7 +444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -561,43 +486,65 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>950009</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E90AF8B-23E7-437A-A4BA-EC8F5FBC28AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25869B72-09C1-4502-BFF4-81A169F63F7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7743825"/>
-          <a:ext cx="2019300" cy="950009"/>
+          <a:off x="1" y="190501"/>
+          <a:ext cx="2019299" cy="2019299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -902,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C5B669-66C9-4D1A-9832-6FACEEC7FB4A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="102" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -914,185 +861,141 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F3">
+        <v>168.06</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <f>165*F2</f>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <f>77.3*F3</f>
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <f>66.21*F4</f>
-        <v>1986.2999999999997</v>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>66.209999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <f>76.57*F5</f>
-        <v>2297.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <f>23.78*F6</f>
-        <v>713.40000000000009</v>
+        <v>76.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <f>22.49*F7</f>
-        <v>674.69999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>2371.1799999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f>SUM(G:G)/30</f>
-        <v>510.38933333333335</v>
+        <v>19.170000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8ED229DF-7881-4E4D-9AF0-54535E5C6464}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{A603D9E8-4217-4B27-B7EB-72BF643EF6A1}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{1878ABFE-380F-4ADD-96C5-ABDD9BF8624E}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{E7A85793-D2C1-4A0A-BF0B-179D5611E4BA}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{0ACB1499-9A9F-404E-9672-16FD983996C7}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{ADDD19EC-527C-474E-BB80-8DA1AB889CE4}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{8ED229DF-7881-4E4D-9AF0-54535E5C6464}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{A603D9E8-4217-4B27-B7EB-72BF643EF6A1}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{1878ABFE-380F-4ADD-96C5-ABDD9BF8624E}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{E7A85793-D2C1-4A0A-BF0B-179D5611E4BA}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{ADDD19EC-527C-474E-BB80-8DA1AB889CE4}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{F8A0143E-85BF-405C-B7DF-9B3B862BD2B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/pickup/docs/BOM.xlsx
+++ b/pickup/docs/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Documents\Git\ohnoitsalobo\pickup\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39EF6D-916E-4231-B395-424733CCEB0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80FAA7-E4FD-4524-8DC2-E02AD079EE9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12825" xr2:uid="{8DB83B54-F7A3-487D-82E4-D6D8BE36EA34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -168,13 +168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>60443</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -223,13 +223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>697992</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -289,13 +289,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>918210</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -355,13 +355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>976503</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -421,13 +421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1677801</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -487,13 +487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -526,6 +526,72 @@
         <a:xfrm>
           <a:off x="1" y="190501"/>
           <a:ext cx="2019299" cy="2019299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A05841-B68B-476F-8ED1-D9E103E8E196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="190501"/>
+          <a:ext cx="2019300" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C5B669-66C9-4D1A-9832-6FACEEC7FB4A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="102" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,24 +966,25 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>168.06</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,21 +995,21 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>68.75</v>
+        <v>168.06</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -951,16 +1018,15 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>66.209999999999994</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -969,36 +1035,55 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>76.569999999999993</v>
+        <v>66.209999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>76.569999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>19.170000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8ED229DF-7881-4E4D-9AF0-54535E5C6464}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{A603D9E8-4217-4B27-B7EB-72BF643EF6A1}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{1878ABFE-380F-4ADD-96C5-ABDD9BF8624E}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{E7A85793-D2C1-4A0A-BF0B-179D5611E4BA}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{ADDD19EC-527C-474E-BB80-8DA1AB889CE4}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{F8A0143E-85BF-405C-B7DF-9B3B862BD2B5}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{8ED229DF-7881-4E4D-9AF0-54535E5C6464}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A603D9E8-4217-4B27-B7EB-72BF643EF6A1}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{1878ABFE-380F-4ADD-96C5-ABDD9BF8624E}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{E7A85793-D2C1-4A0A-BF0B-179D5611E4BA}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{ADDD19EC-527C-474E-BB80-8DA1AB889CE4}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{F8A0143E-85BF-405C-B7DF-9B3B862BD2B5}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{9F6181CB-D46E-4F49-9C1E-6C35F9751E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/pickup/docs/BOM.xlsx
+++ b/pickup/docs/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Documents\Git\ohnoitsalobo\pickup\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80FAA7-E4FD-4524-8DC2-E02AD079EE9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BC6A5-8438-4E26-BD20-03CB6285F80D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12825" xr2:uid="{8DB83B54-F7A3-487D-82E4-D6D8BE36EA34}"/>
   </bookViews>
@@ -918,7 +918,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="102" customHeight="1" x14ac:dyDescent="0.25"/>
